--- a/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,9%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 6,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; -0,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; -0,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 18,49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; -0,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; -0,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B09-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,87</t>
+          <t>-2,48; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,59</t>
+          <t>-5,81; -0,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,0</t>
+          <t>-8,6; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 7,39</t>
+          <t>-2,52; 7,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,59</t>
+          <t>-5,81; -0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,0</t>
+          <t>-8,6; 0,0</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,49</t>
+          <t>0,0; 20,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,67</t>
+          <t>0,0; 25,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,07</t>
+          <t>-1,21; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,49</t>
+          <t>-4,18; -0,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,0</t>
+          <t>-7,83; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 6,46</t>
+          <t>-1,22; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,49</t>
+          <t>-4,18; -0,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,0</t>
+          <t>-7,83; 0,0</t>
         </is>
       </c>
     </row>
